--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/60/Output_4_45.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/60/Output_4_45.xlsx
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>77126.99481706452</v>
+        <v>5151068.340509109</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>77126.99481706452</v>
+        <v>5151068.340509109</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>958012534.452529</v>
+        <v>34847932.47133704</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>9788.142338425825</v>
+        <v>769773.2774972288</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>19183.61425483821</v>
+        <v>1471595.527617247</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>28571.61533395805</v>
+        <v>2173417.777737266</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>38164.96916116324</v>
+        <v>2874536.604206495</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>47758.31051348713</v>
+        <v>3575655.430675725</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>57351.66139037457</v>
+        <v>4276774.257144954</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>66944.96216966199</v>
+        <v>4977893.083614178</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>76538.26294894943</v>
+        <v>5679011.910083403</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>86131.61677615464</v>
+        <v>6380130.736552627</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>95724.9676530421</v>
+        <v>7081249.563021853</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>105318.3214802473</v>
+        <v>7782368.389491078</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>114911.6723571347</v>
+        <v>8483487.215960307</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>124504.9731364222</v>
+        <v>9184606.042429542</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>134098.3269636273</v>
+        <v>9885724.868898775</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>143691.6807908326</v>
+        <v>10586843.69536801</v>
       </c>
     </row>
   </sheetData>
